--- a/1100Class.xlsx
+++ b/1100Class.xlsx
@@ -123,9 +123,6 @@
     <t>gxi100@francis.edu</t>
   </si>
   <si>
-    <t>daj108@francis.edu</t>
-  </si>
-  <si>
     <t>Jordan-Toney, Jymere</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Whited, Taylor M.</t>
   </si>
   <si>
-    <t>tmw110@francis.edu</t>
-  </si>
-  <si>
     <t>Zecca, Andrew A.,, Jr.</t>
   </si>
   <si>
@@ -247,6 +241,12 @@
   </si>
   <si>
     <t>ccvzxvzx</t>
+  </si>
+  <si>
+    <t>adssfsdfas</t>
+  </si>
+  <si>
+    <t>dsfafs</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1210,10 +1210,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -1238,10 +1238,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>20</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1294,10 +1294,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>20</v>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>20</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
@@ -1406,13 +1406,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>20</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -1476,13 +1476,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -1490,13 +1490,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>5</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>5</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
@@ -1560,10 +1560,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>5</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>11</v>
@@ -1588,10 +1588,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>11</v>
